--- a/TICKET/TABLESCHEME.xlsx
+++ b/TICKET/TABLESCHEME.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="26895" windowHeight="12960"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="26895" windowHeight="12960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>［2024 Theatre 이문세］ - 광주 (interpark.com)</t>
   </si>
@@ -173,6 +173,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>좌석넘버링</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>층</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -198,6 +202,14 @@
   </si>
   <si>
     <t>등급번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 정리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급 번호</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -205,6 +217,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -265,7 +280,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -279,6 +294,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -578,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -616,7 +634,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -659,22 +677,30 @@
       <c r="C13" t="s">
         <v>6</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="D14" t="s">
         <v>16</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>21</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
         <v>17</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G14" t="s">
         <v>15</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H14" t="s">
         <v>19</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I14" t="s">
         <v>18</v>
       </c>
     </row>
@@ -754,33 +780,33 @@
     </row>
     <row r="25" spans="1:4" s="4" customFormat="1">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="4" customFormat="1"/>
     <row r="27" spans="1:4" s="4" customFormat="1">
       <c r="A27" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="4" customFormat="1">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="4" customFormat="1"/>
@@ -806,12 +832,301 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AJ8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36">
+      <c r="A1" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>45374</v>
+      </c>
+      <c r="C2" s="5">
+        <v>45375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>45401</v>
+      </c>
+      <c r="C3" s="5">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>45344</v>
+      </c>
+      <c r="C4" s="5">
+        <v>45345</v>
+      </c>
+      <c r="D4" s="5">
+        <v>45346</v>
+      </c>
+      <c r="E4" s="5">
+        <v>45347</v>
+      </c>
+      <c r="F4" s="5">
+        <v>45349</v>
+      </c>
+      <c r="G4" s="5">
+        <v>45350</v>
+      </c>
+      <c r="H4" s="5">
+        <v>45351</v>
+      </c>
+      <c r="I4" s="5">
+        <v>45352</v>
+      </c>
+      <c r="J4" s="5">
+        <v>45353</v>
+      </c>
+      <c r="K4" s="5">
+        <v>45354</v>
+      </c>
+      <c r="L4" s="5">
+        <v>45356</v>
+      </c>
+      <c r="M4" s="5">
+        <v>45357</v>
+      </c>
+      <c r="N4" s="5">
+        <v>45358</v>
+      </c>
+      <c r="O4" s="5">
+        <v>45359</v>
+      </c>
+      <c r="P4" s="5">
+        <v>45360</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>45361</v>
+      </c>
+      <c r="R4" s="5">
+        <v>45363</v>
+      </c>
+      <c r="S4" s="5">
+        <v>45364</v>
+      </c>
+      <c r="T4" s="5">
+        <v>45365</v>
+      </c>
+      <c r="U4" s="5">
+        <v>45366</v>
+      </c>
+      <c r="V4" s="5">
+        <v>45367</v>
+      </c>
+      <c r="W4" s="5">
+        <v>45368</v>
+      </c>
+      <c r="X4" s="5">
+        <v>45370</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>45371</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>45372</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>45373</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>45374</v>
+      </c>
+      <c r="AC4" s="5">
+        <v>45375</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>45376</v>
+      </c>
+      <c r="AE4" s="5">
+        <v>45377</v>
+      </c>
+      <c r="AF4" s="5">
+        <v>45378</v>
+      </c>
+      <c r="AG4" s="5">
+        <v>45379</v>
+      </c>
+      <c r="AH4" s="5">
+        <v>45380</v>
+      </c>
+      <c r="AI4" s="5">
+        <v>45381</v>
+      </c>
+      <c r="AJ4" s="5">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>45336</v>
+      </c>
+      <c r="C5" s="5">
+        <v>45337</v>
+      </c>
+      <c r="D5" s="5">
+        <v>45338</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45339</v>
+      </c>
+      <c r="F5" s="5">
+        <v>45340</v>
+      </c>
+      <c r="G5" s="5">
+        <v>45342</v>
+      </c>
+      <c r="H5" s="5">
+        <v>45343</v>
+      </c>
+      <c r="I5" s="5">
+        <v>45344</v>
+      </c>
+      <c r="J5" s="5">
+        <v>45345</v>
+      </c>
+      <c r="K5" s="5">
+        <v>45346</v>
+      </c>
+      <c r="L5" s="5">
+        <v>45347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>45379</v>
+      </c>
+      <c r="C6" s="5">
+        <v>45380</v>
+      </c>
+      <c r="D6" s="5">
+        <v>45381</v>
+      </c>
+      <c r="E6" s="5">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>45336</v>
+      </c>
+      <c r="C7" s="5">
+        <v>45337</v>
+      </c>
+      <c r="D7" s="5">
+        <v>45338</v>
+      </c>
+      <c r="E7" s="5">
+        <v>45339</v>
+      </c>
+      <c r="F7" s="5">
+        <v>45340</v>
+      </c>
+      <c r="G7" s="5">
+        <v>45342</v>
+      </c>
+      <c r="H7" s="5">
+        <v>45343</v>
+      </c>
+      <c r="I7" s="5">
+        <v>45344</v>
+      </c>
+      <c r="J7" s="5">
+        <v>45345</v>
+      </c>
+      <c r="K7" s="5">
+        <v>45346</v>
+      </c>
+      <c r="L7" s="5">
+        <v>45347</v>
+      </c>
+      <c r="M7" s="5">
+        <v>45349</v>
+      </c>
+      <c r="N7" s="5">
+        <v>45350</v>
+      </c>
+      <c r="O7" s="5">
+        <v>45351</v>
+      </c>
+      <c r="P7" s="5">
+        <v>45352</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>45353</v>
+      </c>
+      <c r="R7" s="5">
+        <v>45354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>45373</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45374</v>
+      </c>
+      <c r="D8" s="5">
+        <v>45375</v>
+      </c>
+      <c r="E8" s="5">
+        <v>45377</v>
+      </c>
+      <c r="F8" s="5">
+        <v>45378</v>
+      </c>
+      <c r="G8" s="5">
+        <v>45379</v>
+      </c>
+      <c r="H8" s="5">
+        <v>45380</v>
+      </c>
+      <c r="I8" s="5">
+        <v>45381</v>
+      </c>
+      <c r="J8" s="5">
+        <v>45382</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
